--- a/InventorModel/ZAxis/ZEndstop BOM.xlsx
+++ b/InventorModel/ZAxis/ZEndstop BOM.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="24915" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Jack Cleveland</author>
+    <author>Jack</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,11 +104,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>PART PREVIEW</t>
   </si>
   <si>
+    <t>PART NUMBER</t>
+  </si>
+  <si>
     <t>QUANTITY</t>
   </si>
   <si>
@@ -128,12 +139,18 @@
     <t>Hover here for image</t>
   </si>
   <si>
+    <t>ZAxisEndstopMount</t>
+  </si>
+  <si>
     <t>10mm Rod Endstop Mount</t>
   </si>
   <si>
     <t>Print</t>
   </si>
   <si>
+    <t>EndStopOptical</t>
+  </si>
+  <si>
     <t>End Stop Optical</t>
   </si>
   <si>
@@ -146,6 +163,9 @@
     <t>http://www.robotdigg.com/product/155/Optical-Endstop-w/-Lead-Wires-for-3D-Printers</t>
   </si>
   <si>
+    <t>BoltWasher3x10</t>
+  </si>
+  <si>
     <t>Bolt + Washer 3x10</t>
   </si>
   <si>
@@ -155,16 +175,22 @@
     <t>McMaster Carr</t>
   </si>
   <si>
+    <t>M3Nut</t>
+  </si>
+  <si>
     <t>M3 Nut</t>
   </si>
   <si>
+    <t>BoltWasher3x20</t>
+  </si>
+  <si>
     <t>Bolt + Washer 3x20</t>
   </si>
   <si>
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 11/5/2015 17:59:09</t>
+    <t>File created: 10/25/2015 17:46:25</t>
   </si>
 </sst>
 </file>
@@ -312,6 +338,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -327,39 +356,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,191 +467,168 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,179 +656,173 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <f>SUM(B2*C2)</f>
+      <c r="E2" s="4">
+        <f>SUM(C2*D2)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(C3*D3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM(C4*D4)</f>
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM(C5*D5)</f>
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(C6*D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM(B3*C3)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM(B4*C4)</f>
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM(B5*C5)</f>
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM(B6*C6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6">
-        <f>SUM(D2:D6)</f>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6">
+        <f>SUM(E2:E6)</f>
         <v>2.35</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I7">
-    <sortCondition ref="F1"/>
+  <sortState ref="A2:J6">
+    <sortCondition ref="G2:G6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InventorModel/ZAxis/ZEndstop BOM.xlsx
+++ b/InventorModel/ZAxis/ZEndstop BOM.xlsx
@@ -190,7 +190,7 @@
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 10/25/2015 17:46:25</t>
+    <t>File created: 2015-10-26 20:57:57</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
